--- a/src/attributions/attributions_ig_traj_55.xlsx
+++ b/src/attributions/attributions_ig_traj_55.xlsx
@@ -1004,100 +1004,100 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0.01094142307033315</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.02270340037049248</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2196709411448974</v>
+        <v>0.04296376913225685</v>
       </c>
       <c r="F2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
         <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2754890578771904</v>
+        <v>0.07871316129541535</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.003535975099016027</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01160756109671216</v>
+        <v>-0</v>
       </c>
       <c r="M2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.003505168099722889</v>
+        <v>0.009957843264715983</v>
       </c>
       <c r="O2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q2" t="n">
         <v>-0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1992678732888121</v>
+        <v>0.06407974919235335</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T2" t="n">
-        <v>-0</v>
+        <v>-0.03290177521163198</v>
       </c>
       <c r="U2" t="n">
-        <v>0.02662374860121834</v>
+        <v>-0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.1590409940394258</v>
+        <v>-0.03419089085764498</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
         <v>-0</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.04287507460648379</v>
+        <v>0.04593412620757636</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>-0.05333869433863267</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.1066652134311319</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
         <v>-0</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.0004451721186387794</v>
+        <v>0.02063072599629463</v>
       </c>
       <c r="AG2" t="n">
         <v>-0</v>
@@ -1106,109 +1106,109 @@
         <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.1304951774621053</v>
+        <v>-0.002063408470357172</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0</v>
+        <v>-0.01367329813146253</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.02058474140211934</v>
+        <v>-0</v>
       </c>
       <c r="AN2" t="n">
         <v>0</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.03003689933254924</v>
+        <v>0.006282277872376427</v>
       </c>
       <c r="AP2" t="n">
         <v>0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR2" t="n">
         <v>-0</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.001261012036153787</v>
+        <v>0.008871275415998506</v>
       </c>
       <c r="AT2" t="n">
         <v>-0</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0</v>
+        <v>-0.005408689827282381</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.01596605779359329</v>
+        <v>-0</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.1393136973403451</v>
+        <v>0.004660220017251502</v>
       </c>
       <c r="AY2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA2" t="n">
         <v>-0</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.2211609286265014</v>
+        <v>0.02869511510710846</v>
       </c>
       <c r="BC2" t="n">
         <v>-0</v>
       </c>
       <c r="BD2" t="n">
-        <v>0</v>
+        <v>-0.008203852587320554</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.1273345730687693</v>
+        <v>-0</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.02253370202416413</v>
+        <v>0.01506562833842054</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK2" t="n">
-        <v>-0.1622404352242788</v>
+        <v>0.01756553241782753</v>
       </c>
       <c r="BL2" t="n">
         <v>-0</v>
       </c>
       <c r="BM2" t="n">
-        <v>-0</v>
+        <v>0.02271330341487685</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.09331523547728122</v>
+        <v>-0</v>
       </c>
       <c r="BO2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.06769593219540333</v>
+        <v>-0.008262918392265364</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR2" t="n">
         <v>0</v>
@@ -1217,130 +1217,130 @@
         <v>0</v>
       </c>
       <c r="BT2" t="n">
-        <v>-0.1108359431179236</v>
+        <v>-0.03000030150128538</v>
       </c>
       <c r="BU2" t="n">
         <v>-0</v>
       </c>
       <c r="BV2" t="n">
-        <v>-0</v>
+        <v>-0.04820032973671828</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.1685256402690847</v>
+        <v>-0</v>
       </c>
       <c r="BX2" t="n">
         <v>-0</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.1911928025111387</v>
+        <v>0.0166243824289755</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB2" t="n">
         <v>-0</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.2791242432189194</v>
+        <v>0.02259373977897653</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE2" t="n">
-        <v>0</v>
+        <v>0.01688502689622498</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.04238877083862783</v>
+        <v>0</v>
       </c>
       <c r="CG2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH2" t="n">
-        <v>-0.04673741904335552</v>
+        <v>0.008852821856141035</v>
       </c>
       <c r="CI2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK2" t="n">
         <v>-0</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0.04920337924907607</v>
+        <v>-0.02544768209186576</v>
       </c>
       <c r="CM2" t="n">
         <v>0</v>
       </c>
       <c r="CN2" t="n">
-        <v>0</v>
+        <v>-0.02022961810880664</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.01910701236282944</v>
+        <v>0</v>
       </c>
       <c r="CP2" t="n">
         <v>0</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.02365666949483458</v>
+        <v>0.1037119917678557</v>
       </c>
       <c r="CR2" t="n">
         <v>0</v>
       </c>
       <c r="CS2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.162043129424257</v>
+        <v>0.009240469945172186</v>
       </c>
       <c r="CV2" t="n">
         <v>0</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0</v>
+        <v>0.01105881794460198</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.04565845219619766</v>
+        <v>0</v>
       </c>
       <c r="CY2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-0.06203587513334458</v>
+        <v>0.004463541644335995</v>
       </c>
       <c r="DA2" t="n">
         <v>-0</v>
       </c>
       <c r="DB2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD2" t="n">
-        <v>-0.07931789036659886</v>
+        <v>-0.02683869610227808</v>
       </c>
       <c r="DE2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>0</v>
+        <v>0.02860397305784635</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.06232293825778365</v>
+        <v>-0</v>
       </c>
       <c r="DH2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.04209590289223777</v>
+        <v>0.007217265846267478</v>
       </c>
       <c r="DJ2" t="n">
         <v>-0</v>
@@ -1352,25 +1352,25 @@
         <v>-0</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.03907275562244099</v>
+        <v>-0.006550006541881214</v>
       </c>
       <c r="DN2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO2" t="n">
-        <v>0</v>
+        <v>-0.01777904642001776</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.001271305056447101</v>
+        <v>0</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR2" t="n">
-        <v>-0.1644728273292741</v>
+        <v>-0.006755329380272512</v>
       </c>
       <c r="DS2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT2" t="n">
         <v>0</v>
@@ -1379,76 +1379,76 @@
         <v>0</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.1550070022667189</v>
+        <v>-0.006769159476782525</v>
       </c>
       <c r="DW2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX2" t="n">
-        <v>-0</v>
+        <v>0.04772045279401264</v>
       </c>
       <c r="DY2" t="n">
-        <v>-0.01846572182747915</v>
+        <v>-0</v>
       </c>
       <c r="DZ2" t="n">
         <v>0</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.129461379839703</v>
+        <v>-0.01601142774210428</v>
       </c>
       <c r="EB2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EC2" t="n">
         <v>-0</v>
       </c>
       <c r="ED2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE2" t="n">
-        <v>-0.05567176192814819</v>
+        <v>0.05778554912053757</v>
       </c>
       <c r="EF2" t="n">
         <v>-0</v>
       </c>
       <c r="EG2" t="n">
-        <v>0</v>
+        <v>-0.00929596159903205</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.04954061133121077</v>
+        <v>-0</v>
       </c>
       <c r="EI2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.04469467334890432</v>
+        <v>-0.01564134170556547</v>
       </c>
       <c r="EK2" t="n">
         <v>0</v>
       </c>
       <c r="EL2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN2" t="n">
-        <v>-0.1034660148467451</v>
+        <v>0.001629288012128212</v>
       </c>
       <c r="EO2" t="n">
         <v>-0</v>
       </c>
       <c r="EP2" t="n">
-        <v>0</v>
+        <v>0.02704586368964909</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-0.1163067601869725</v>
+        <v>-0</v>
       </c>
       <c r="ER2" t="n">
         <v>-0</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.08550054600818971</v>
+        <v>-0.006404896440298771</v>
       </c>
       <c r="ET2" t="n">
         <v>-0</v>
@@ -1460,22 +1460,22 @@
         <v>-0</v>
       </c>
       <c r="EW2" t="n">
-        <v>-0.05864090161442235</v>
+        <v>-0.03372968847223407</v>
       </c>
       <c r="EX2" t="n">
         <v>-0</v>
       </c>
       <c r="EY2" t="n">
-        <v>0</v>
+        <v>0.01899876350028627</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.03300136938188983</v>
+        <v>0</v>
       </c>
       <c r="FA2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB2" t="n">
-        <v>-0.0159319508540065</v>
+        <v>0.01339631949759167</v>
       </c>
       <c r="FC2" t="n">
         <v>0</v>
@@ -1484,73 +1484,73 @@
         <v>0</v>
       </c>
       <c r="FE2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF2" t="n">
-        <v>-0.1085100709171075</v>
+        <v>-0.03099306958336743</v>
       </c>
       <c r="FG2" t="n">
         <v>0</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0</v>
+        <v>-0.03699291449473368</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.1125430165806161</v>
+        <v>0</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK2" t="n">
-        <v>-0.1223724132740162</v>
+        <v>0.04672590029211691</v>
       </c>
       <c r="FL2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FN2" t="n">
         <v>-0</v>
       </c>
       <c r="FO2" t="n">
-        <v>-0.2301011142061585</v>
+        <v>0.007139221994237545</v>
       </c>
       <c r="FP2" t="n">
         <v>0</v>
       </c>
       <c r="FQ2" t="n">
-        <v>-0</v>
+        <v>0.01924978564247804</v>
       </c>
       <c r="FR2" t="n">
-        <v>-0.01465827432585559</v>
+        <v>-0</v>
       </c>
       <c r="FS2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FT2" t="n">
-        <v>-0.1207667262786371</v>
+        <v>0.05254207881786921</v>
       </c>
       <c r="FU2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX2" t="n">
-        <v>-0.07423412328376938</v>
+        <v>0.04598532185778777</v>
       </c>
       <c r="FY2" t="n">
         <v>0</v>
       </c>
       <c r="FZ2" t="n">
-        <v>-0</v>
+        <v>0.04724753441169199</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.03353599474148566</v>
+        <v>0</v>
       </c>
       <c r="GB2" t="n">
         <v>0</v>
@@ -1559,16 +1559,16 @@
         <v>-0</v>
       </c>
       <c r="GD2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GE2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG2" t="n">
-        <v>-0.1389953893936356</v>
+        <v>-0.01715461612816641</v>
       </c>
     </row>
     <row r="3">
@@ -1576,127 +1576,127 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>-0</v>
+        <v>0.3690835866927391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.04788829996994928</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.00858856529610854</v>
+        <v>0.01816694294243201</v>
       </c>
       <c r="F3" t="n">
-        <v>-0</v>
+        <v>-0.1665841780452018</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1532378056008013</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>-0</v>
+        <v>0.2202849421321157</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.0128857756318239</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.01821009995907262</v>
+        <v>-0.03146287384077819</v>
       </c>
       <c r="O3" t="n">
-        <v>-0</v>
+        <v>-0.1338118279181565</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.152225370695008</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T3" t="n">
-        <v>-0</v>
+        <v>0.02907066668592235</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.03224175607508317</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.08936815592065912</v>
+        <v>-0.0492600178580038</v>
       </c>
       <c r="X3" t="n">
-        <v>-0</v>
+        <v>0.0008904752326074354</v>
       </c>
       <c r="Y3" t="n">
         <v>-0</v>
       </c>
       <c r="Z3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.05934859048681561</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
         <v>-0</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0</v>
+        <v>0.0778333136277346</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.006411300546480125</v>
+        <v>-0</v>
       </c>
       <c r="AF3" t="n">
-        <v>-0.02772133836087957</v>
+        <v>0.02094523084813306</v>
       </c>
       <c r="AG3" t="n">
-        <v>-0</v>
+        <v>-0.01161976552179673</v>
       </c>
       <c r="AH3" t="n">
         <v>-0</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-0.08520023658931838</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>-0</v>
+        <v>0.01513698970351237</v>
       </c>
       <c r="AM3" t="n">
         <v>-0</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.001892628423869559</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>-0.0143090914915183</v>
+        <v>-0.0304813822039554</v>
       </c>
       <c r="AP3" t="n">
-        <v>0</v>
+        <v>-0.04441278490691928</v>
       </c>
       <c r="AQ3" t="n">
         <v>0</v>
@@ -1705,25 +1705,25 @@
         <v>-0</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.01316368080095141</v>
+        <v>0</v>
       </c>
       <c r="AT3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU3" t="n">
-        <v>-0</v>
+        <v>0.2036849506012744</v>
       </c>
       <c r="AV3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW3" t="n">
-        <v>-0.01683420872084544</v>
+        <v>0</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.007426330355344536</v>
+        <v>0.02442101328335584</v>
       </c>
       <c r="AY3" t="n">
-        <v>0</v>
+        <v>-0.0474700825118084</v>
       </c>
       <c r="AZ3" t="n">
         <v>0</v>
@@ -1732,268 +1732,268 @@
         <v>-0</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.06105432091001577</v>
+        <v>0</v>
       </c>
       <c r="BC3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD3" t="n">
-        <v>-0</v>
+        <v>0.103076671377161</v>
       </c>
       <c r="BE3" t="n">
         <v>0</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.02824198931091471</v>
+        <v>0</v>
       </c>
       <c r="BG3" t="n">
-        <v>-0.05050092825623868</v>
+        <v>-0.0769545822519615</v>
       </c>
       <c r="BH3" t="n">
-        <v>-0</v>
+        <v>-0.08339867477329048</v>
       </c>
       <c r="BI3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ3" t="n">
         <v>0</v>
       </c>
       <c r="BK3" t="n">
-        <v>-0.00539911062068216</v>
+        <v>-0</v>
       </c>
       <c r="BL3" t="n">
         <v>-0</v>
       </c>
       <c r="BM3" t="n">
-        <v>-0</v>
+        <v>0.1479987893326746</v>
       </c>
       <c r="BN3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO3" t="n">
-        <v>-0.03171357650732423</v>
+        <v>-0</v>
       </c>
       <c r="BP3" t="n">
-        <v>-0.003217211599018553</v>
+        <v>0.1171054776125393</v>
       </c>
       <c r="BQ3" t="n">
-        <v>-0</v>
+        <v>0.02050854369359875</v>
       </c>
       <c r="BR3" t="n">
         <v>-0</v>
       </c>
       <c r="BS3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BT3" t="n">
-        <v>-0.07982638339155501</v>
+        <v>0</v>
       </c>
       <c r="BU3" t="n">
         <v>-0</v>
       </c>
       <c r="BV3" t="n">
-        <v>-0</v>
+        <v>0.1701214669555172</v>
       </c>
       <c r="BW3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX3" t="n">
-        <v>-0.04615105667256068</v>
+        <v>0</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.01807123846779661</v>
+        <v>-0.02511809014332062</v>
       </c>
       <c r="BZ3" t="n">
-        <v>-0</v>
+        <v>0.01839676943302383</v>
       </c>
       <c r="CA3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB3" t="n">
         <v>-0</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.1299474148756846</v>
+        <v>0</v>
       </c>
       <c r="CD3" t="n">
         <v>-0</v>
       </c>
       <c r="CE3" t="n">
-        <v>0</v>
+        <v>-0.09175599372838619</v>
       </c>
       <c r="CF3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG3" t="n">
-        <v>0.0155455338973732</v>
+        <v>-0</v>
       </c>
       <c r="CH3" t="n">
-        <v>-0.004741369406959563</v>
+        <v>-0.02395348422860513</v>
       </c>
       <c r="CI3" t="n">
-        <v>0</v>
+        <v>0.05374101635836474</v>
       </c>
       <c r="CJ3" t="n">
         <v>-0</v>
       </c>
       <c r="CK3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL3" t="n">
-        <v>-0.02517095279472905</v>
+        <v>0</v>
       </c>
       <c r="CM3" t="n">
         <v>0</v>
       </c>
       <c r="CN3" t="n">
-        <v>0</v>
+        <v>-0.03169735246796119</v>
       </c>
       <c r="CO3" t="n">
         <v>0</v>
       </c>
       <c r="CP3" t="n">
-        <v>0.001184422241229679</v>
+        <v>0</v>
       </c>
       <c r="CQ3" t="n">
-        <v>-0.01615765304544151</v>
+        <v>-0.0009198995644213624</v>
       </c>
       <c r="CR3" t="n">
-        <v>0</v>
+        <v>-0.07448271850551</v>
       </c>
       <c r="CS3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU3" t="n">
-        <v>0.06143626262428373</v>
+        <v>0</v>
       </c>
       <c r="CV3" t="n">
         <v>0</v>
       </c>
       <c r="CW3" t="n">
-        <v>-0</v>
+        <v>-0.06014996919868565</v>
       </c>
       <c r="CX3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY3" t="n">
-        <v>0.01973718978836832</v>
+        <v>0</v>
       </c>
       <c r="CZ3" t="n">
-        <v>-0.02451075034071078</v>
+        <v>-0.01945309509954048</v>
       </c>
       <c r="DA3" t="n">
-        <v>-0</v>
+        <v>0.04956437332341589</v>
       </c>
       <c r="DB3" t="n">
         <v>0</v>
       </c>
       <c r="DC3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD3" t="n">
-        <v>-0.0385736828479302</v>
+        <v>-0</v>
       </c>
       <c r="DE3" t="n">
         <v>-0</v>
       </c>
       <c r="DF3" t="n">
-        <v>0</v>
+        <v>-0.02446396929963464</v>
       </c>
       <c r="DG3" t="n">
         <v>-0</v>
       </c>
       <c r="DH3" t="n">
-        <v>0.02843785029414856</v>
+        <v>-0</v>
       </c>
       <c r="DI3" t="n">
-        <v>-0.01028036715879158</v>
+        <v>0.01394323788486643</v>
       </c>
       <c r="DJ3" t="n">
-        <v>-0</v>
+        <v>-0.002236735894295247</v>
       </c>
       <c r="DK3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL3" t="n">
         <v>-0</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.01343722072905337</v>
+        <v>0</v>
       </c>
       <c r="DN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO3" t="n">
-        <v>0</v>
+        <v>-0.05839890670324374</v>
       </c>
       <c r="DP3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0.002424651636845538</v>
+        <v>-0</v>
       </c>
       <c r="DR3" t="n">
-        <v>-0.01596947321163099</v>
+        <v>-0.004369400580506328</v>
       </c>
       <c r="DS3" t="n">
-        <v>-0</v>
+        <v>-0.06023006475801195</v>
       </c>
       <c r="DT3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU3" t="n">
         <v>-0</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.04863314247631299</v>
+        <v>0</v>
       </c>
       <c r="DW3" t="n">
         <v>-0</v>
       </c>
       <c r="DX3" t="n">
-        <v>-0</v>
+        <v>-0.03828925632847782</v>
       </c>
       <c r="DY3" t="n">
         <v>0</v>
       </c>
       <c r="DZ3" t="n">
-        <v>-0.01961110898982313</v>
+        <v>-0</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.005913110866950979</v>
+        <v>-0.0410552320715335</v>
       </c>
       <c r="EB3" t="n">
-        <v>0</v>
+        <v>-0.01494314719742816</v>
       </c>
       <c r="EC3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.01206269912902078</v>
+        <v>0</v>
       </c>
       <c r="EF3" t="n">
         <v>-0</v>
       </c>
       <c r="EG3" t="n">
-        <v>0</v>
+        <v>-0.01220593441947073</v>
       </c>
       <c r="EH3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI3" t="n">
-        <v>0.01363007635037928</v>
+        <v>0</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.02831687117454292</v>
+        <v>-0.0006217922736090202</v>
       </c>
       <c r="EK3" t="n">
-        <v>-0</v>
+        <v>0.0422171764644469</v>
       </c>
       <c r="EL3" t="n">
         <v>-0</v>
@@ -2002,79 +2002,79 @@
         <v>0</v>
       </c>
       <c r="EN3" t="n">
-        <v>-0.04078749671118583</v>
+        <v>0</v>
       </c>
       <c r="EO3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP3" t="n">
-        <v>0</v>
+        <v>-0.06073214328243148</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.05185233188185823</v>
+        <v>-0</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.01468792011499384</v>
+        <v>-0.01895931330088301</v>
       </c>
       <c r="ET3" t="n">
-        <v>0</v>
+        <v>0.136060947650406</v>
       </c>
       <c r="EU3" t="n">
         <v>-0</v>
       </c>
       <c r="EV3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW3" t="n">
-        <v>-0.03315064354238199</v>
+        <v>-0</v>
       </c>
       <c r="EX3" t="n">
         <v>-0</v>
       </c>
       <c r="EY3" t="n">
-        <v>0</v>
+        <v>-0.0592500649894455</v>
       </c>
       <c r="EZ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA3" t="n">
-        <v>0.006903805465954666</v>
+        <v>-0</v>
       </c>
       <c r="FB3" t="n">
-        <v>-0.007049692786670357</v>
+        <v>-0.01750872378544732</v>
       </c>
       <c r="FC3" t="n">
-        <v>0</v>
+        <v>0.0576373075834412</v>
       </c>
       <c r="FD3" t="n">
         <v>-0</v>
       </c>
       <c r="FE3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF3" t="n">
-        <v>-0.04967560422046668</v>
+        <v>0</v>
       </c>
       <c r="FG3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH3" t="n">
-        <v>0</v>
+        <v>-0.05048771197997477</v>
       </c>
       <c r="FI3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ3" t="n">
-        <v>-0.04111158340912992</v>
+        <v>-0</v>
       </c>
       <c r="FK3" t="n">
-        <v>-0.03759724393170998</v>
+        <v>-0.0461553717717021</v>
       </c>
       <c r="FL3" t="n">
-        <v>-0</v>
+        <v>0.01032124350868965</v>
       </c>
       <c r="FM3" t="n">
         <v>-0</v>
@@ -2083,114 +2083,114 @@
         <v>-0</v>
       </c>
       <c r="FO3" t="n">
-        <v>-0.05825334293071002</v>
+        <v>0</v>
       </c>
       <c r="FP3" t="n">
         <v>0</v>
       </c>
       <c r="FQ3" t="n">
-        <v>-0</v>
+        <v>-0.1019266318875449</v>
       </c>
       <c r="FR3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.001836263451215648</v>
+        <v>0</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.002364903915469829</v>
+        <v>-0.07102625878180314</v>
       </c>
       <c r="FU3" t="n">
-        <v>-0</v>
+        <v>0.005098051765648195</v>
       </c>
       <c r="FV3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW3" t="n">
         <v>-0</v>
       </c>
       <c r="FX3" t="n">
-        <v>-0.04654601463017044</v>
+        <v>0</v>
       </c>
       <c r="FY3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0</v>
+        <v>-0.09177855697791834</v>
       </c>
       <c r="GA3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.05728648936419051</v>
+        <v>-0</v>
       </c>
       <c r="GC3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD3" t="n">
-        <v>-0</v>
+        <v>-0.03975544179993089</v>
       </c>
       <c r="GE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF3" t="n">
         <v>-0</v>
       </c>
       <c r="GG3" t="n">
-        <v>0.00566899893482794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1.168578873876756</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-1.238994793232814</v>
       </c>
       <c r="E4" t="n">
-        <v>0.123245433855899</v>
+        <v>0.3652635390059059</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.483562487105775</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3645859355727527</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>-0</v>
+        <v>0.7848780087587253</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>-1.058150152458685</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2552563552720715</v>
+        <v>-0.2249297454483754</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.4840474033386949</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.436318324775527</v>
+        <v>-0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -2199,160 +2199,160 @@
         <v>-0</v>
       </c>
       <c r="T4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>0.3309072532482936</v>
       </c>
       <c r="V4" t="n">
-        <v>-0</v>
+        <v>-0.3472850210455513</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1030472497503354</v>
+        <v>-0.1002193557814099</v>
       </c>
       <c r="X4" t="n">
-        <v>-0.1099849503588604</v>
+        <v>-0</v>
       </c>
       <c r="Y4" t="n">
         <v>-0</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.202940451647084</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
         <v>-0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>-0.01543322868060197</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>0.2137088343439016</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.2599218188198276</v>
+        <v>0.2709681542578073</v>
       </c>
       <c r="AG4" t="n">
-        <v>-0.01629515687956943</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI4" t="n">
-        <v>-0.01751122039592755</v>
+        <v>0</v>
       </c>
       <c r="AJ4" t="n">
         <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AL4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AM4" t="n">
-        <v>-0</v>
+        <v>-0.0338403645684821</v>
       </c>
       <c r="AN4" t="n">
-        <v>-0</v>
+        <v>0.04059377621756177</v>
       </c>
       <c r="AO4" t="n">
-        <v>-0.1517301994011523</v>
+        <v>-0.159103871355332</v>
       </c>
       <c r="AP4" t="n">
-        <v>-0.007222117145550745</v>
+        <v>0</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR4" t="n">
-        <v>-0.04036174981346506</v>
+        <v>0</v>
       </c>
       <c r="AS4" t="n">
         <v>-0</v>
       </c>
       <c r="AT4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV4" t="n">
-        <v>-0</v>
+        <v>0.5817515329453573</v>
       </c>
       <c r="AW4" t="n">
-        <v>-0</v>
+        <v>-0.5729138624416401</v>
       </c>
       <c r="AX4" t="n">
-        <v>-0.02436469980323575</v>
+        <v>0.2618080645252783</v>
       </c>
       <c r="AY4" t="n">
-        <v>-0.2237397914972197</v>
+        <v>-0</v>
       </c>
       <c r="AZ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.107851472766072</v>
+        <v>0</v>
       </c>
       <c r="BB4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD4" t="n">
         <v>0</v>
       </c>
       <c r="BE4" t="n">
-        <v>0</v>
+        <v>0.2174020942279047</v>
       </c>
       <c r="BF4" t="n">
-        <v>0</v>
+        <v>-0.1206542700818415</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.1209385445145203</v>
+        <v>0.02954368372681944</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.005783927584890128</v>
+        <v>0</v>
       </c>
       <c r="BI4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.1362169674789542</v>
+        <v>0</v>
       </c>
       <c r="BK4" t="n">
         <v>0</v>
       </c>
       <c r="BL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM4" t="n">
         <v>-0</v>
       </c>
       <c r="BN4" t="n">
-        <v>-0</v>
+        <v>-0.01629801992866112</v>
       </c>
       <c r="BO4" t="n">
-        <v>-0</v>
+        <v>0.1587387811895998</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.002708620760492794</v>
+        <v>0.5490817113127018</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.06100251285320797</v>
+        <v>-0</v>
       </c>
       <c r="BR4" t="n">
         <v>0</v>
       </c>
       <c r="BS4" t="n">
-        <v>-0.02459618931568749</v>
+        <v>0</v>
       </c>
       <c r="BT4" t="n">
         <v>-0</v>
@@ -2364,49 +2364,49 @@
         <v>-0</v>
       </c>
       <c r="BW4" t="n">
-        <v>0</v>
+        <v>0.446472716837335</v>
       </c>
       <c r="BX4" t="n">
-        <v>-0</v>
+        <v>-0.641903819193356</v>
       </c>
       <c r="BY4" t="n">
-        <v>-0.2422261821304081</v>
+        <v>0.3863703760488437</v>
       </c>
       <c r="BZ4" t="n">
-        <v>-0.4039354282407387</v>
+        <v>0</v>
       </c>
       <c r="CA4" t="n">
         <v>0</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.1534874353601183</v>
+        <v>0</v>
       </c>
       <c r="CC4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD4" t="n">
         <v>0</v>
       </c>
       <c r="CE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CF4" t="n">
-        <v>-0</v>
+        <v>-0.3425563441838972</v>
       </c>
       <c r="CG4" t="n">
-        <v>-0</v>
+        <v>0.3000589539615124</v>
       </c>
       <c r="CH4" t="n">
-        <v>-0.05594629404652679</v>
+        <v>-0.08216709409978921</v>
       </c>
       <c r="CI4" t="n">
-        <v>0.1340312482616119</v>
+        <v>-0</v>
       </c>
       <c r="CJ4" t="n">
         <v>-0</v>
       </c>
       <c r="CK4" t="n">
-        <v>-0.08874598876495526</v>
+        <v>0</v>
       </c>
       <c r="CL4" t="n">
         <v>-0</v>
@@ -2415,187 +2415,187 @@
         <v>0</v>
       </c>
       <c r="CN4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CO4" t="n">
-        <v>-0</v>
+        <v>0.01696794036292082</v>
       </c>
       <c r="CP4" t="n">
-        <v>-0</v>
+        <v>0.1825003926115173</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.08929863019621585</v>
+        <v>-0.1948601827276571</v>
       </c>
       <c r="CR4" t="n">
-        <v>-0.06191596452192701</v>
+        <v>0</v>
       </c>
       <c r="CS4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT4" t="n">
-        <v>0.0141869269831907</v>
+        <v>-0</v>
       </c>
       <c r="CU4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV4" t="n">
         <v>-0</v>
       </c>
       <c r="CW4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CX4" t="n">
-        <v>0</v>
+        <v>-0.2472759201271077</v>
       </c>
       <c r="CY4" t="n">
-        <v>0</v>
+        <v>0.3157461839530253</v>
       </c>
       <c r="CZ4" t="n">
-        <v>-0.03961260583193058</v>
+        <v>0.03236078950235986</v>
       </c>
       <c r="DA4" t="n">
-        <v>0.1407633442388275</v>
+        <v>0</v>
       </c>
       <c r="DB4" t="n">
         <v>0</v>
       </c>
       <c r="DC4" t="n">
-        <v>-0.1209337065529528</v>
+        <v>-0</v>
       </c>
       <c r="DD4" t="n">
         <v>0</v>
       </c>
       <c r="DE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF4" t="n">
         <v>-0</v>
       </c>
       <c r="DG4" t="n">
-        <v>0</v>
+        <v>-0.0912899524808708</v>
       </c>
       <c r="DH4" t="n">
-        <v>0</v>
+        <v>0.5068560969238159</v>
       </c>
       <c r="DI4" t="n">
-        <v>-0.02840643258183833</v>
+        <v>-0.155751405476664</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0.111782916430424</v>
+        <v>0</v>
       </c>
       <c r="DK4" t="n">
         <v>-0</v>
       </c>
       <c r="DL4" t="n">
-        <v>0.003988289964465264</v>
+        <v>0</v>
       </c>
       <c r="DM4" t="n">
         <v>-0</v>
       </c>
       <c r="DN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO4" t="n">
         <v>-0</v>
       </c>
       <c r="DP4" t="n">
-        <v>-0</v>
+        <v>-0.1765741261037594</v>
       </c>
       <c r="DQ4" t="n">
-        <v>-0</v>
+        <v>0.07348458815670646</v>
       </c>
       <c r="DR4" t="n">
-        <v>-0.02423053298117514</v>
+        <v>-0.6058059695057372</v>
       </c>
       <c r="DS4" t="n">
-        <v>-0.02031906647010418</v>
+        <v>0</v>
       </c>
       <c r="DT4" t="n">
         <v>-0</v>
       </c>
       <c r="DU4" t="n">
-        <v>-0.04864806487464453</v>
+        <v>-0</v>
       </c>
       <c r="DV4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX4" t="n">
         <v>0</v>
       </c>
       <c r="DY4" t="n">
-        <v>-0</v>
+        <v>0.09148975894948083</v>
       </c>
       <c r="DZ4" t="n">
-        <v>-0</v>
+        <v>-0.2406352994917875</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.02708146843091924</v>
+        <v>-0.3377204056363531</v>
       </c>
       <c r="EB4" t="n">
-        <v>-0.04879715419349128</v>
+        <v>-0</v>
       </c>
       <c r="EC4" t="n">
         <v>0</v>
       </c>
       <c r="ED4" t="n">
-        <v>0.03224748850976354</v>
+        <v>0</v>
       </c>
       <c r="EE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG4" t="n">
         <v>0</v>
       </c>
       <c r="EH4" t="n">
-        <v>0</v>
+        <v>-0.4507468265210997</v>
       </c>
       <c r="EI4" t="n">
-        <v>-0</v>
+        <v>0.52060544307574</v>
       </c>
       <c r="EJ4" t="n">
-        <v>-0.02192317042681421</v>
+        <v>0.1615558866003212</v>
       </c>
       <c r="EK4" t="n">
-        <v>0.2078655784891361</v>
+        <v>-0</v>
       </c>
       <c r="EL4" t="n">
         <v>-0</v>
       </c>
       <c r="EM4" t="n">
-        <v>-0.04844916265322805</v>
+        <v>-0</v>
       </c>
       <c r="EN4" t="n">
         <v>-0</v>
       </c>
       <c r="EO4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EQ4" t="n">
-        <v>-0</v>
+        <v>-0.1548715118891623</v>
       </c>
       <c r="ER4" t="n">
-        <v>-0</v>
+        <v>0.2508908855361314</v>
       </c>
       <c r="ES4" t="n">
-        <v>-0.08235180958580687</v>
+        <v>-0.1374277567785225</v>
       </c>
       <c r="ET4" t="n">
-        <v>0.08875343050216435</v>
+        <v>-0</v>
       </c>
       <c r="EU4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV4" t="n">
-        <v>-0.1390945778975165</v>
+        <v>0</v>
       </c>
       <c r="EW4" t="n">
         <v>-0</v>
@@ -2604,25 +2604,25 @@
         <v>0</v>
       </c>
       <c r="EY4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EZ4" t="n">
-        <v>-0</v>
+        <v>-0.3110713116484402</v>
       </c>
       <c r="FA4" t="n">
-        <v>-0</v>
+        <v>0.3598931333412487</v>
       </c>
       <c r="FB4" t="n">
-        <v>-0.08990252590390223</v>
+        <v>0.009997979692796904</v>
       </c>
       <c r="FC4" t="n">
-        <v>0.1330039232186284</v>
+        <v>-0</v>
       </c>
       <c r="FD4" t="n">
         <v>-0</v>
       </c>
       <c r="FE4" t="n">
-        <v>-0.1318599920536425</v>
+        <v>0</v>
       </c>
       <c r="FF4" t="n">
         <v>-0</v>
@@ -2631,25 +2631,25 @@
         <v>0</v>
       </c>
       <c r="FH4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI4" t="n">
-        <v>0</v>
+        <v>-0.1126821823480507</v>
       </c>
       <c r="FJ4" t="n">
-        <v>-0</v>
+        <v>-0.162353657422565</v>
       </c>
       <c r="FK4" t="n">
-        <v>-0.03228156428833436</v>
+        <v>0.3804880316179798</v>
       </c>
       <c r="FL4" t="n">
-        <v>0.03085276656930623</v>
+        <v>0</v>
       </c>
       <c r="FM4" t="n">
         <v>-0</v>
       </c>
       <c r="FN4" t="n">
-        <v>-0.008432066291518374</v>
+        <v>0</v>
       </c>
       <c r="FO4" t="n">
         <v>-0</v>
@@ -2658,55 +2658,55 @@
         <v>-0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR4" t="n">
-        <v>-0</v>
+        <v>-0.008214709908729283</v>
       </c>
       <c r="FS4" t="n">
-        <v>-0</v>
+        <v>-0.0303061716625205</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.1389816567451664</v>
+        <v>-0.1037852969205117</v>
       </c>
       <c r="FU4" t="n">
-        <v>-0.02493692274441652</v>
+        <v>0</v>
       </c>
       <c r="FV4" t="n">
         <v>0</v>
       </c>
       <c r="FW4" t="n">
-        <v>-0.01042865048313152</v>
+        <v>0</v>
       </c>
       <c r="FX4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GA4" t="n">
-        <v>-0</v>
+        <v>0.1023296253725285</v>
       </c>
       <c r="GB4" t="n">
-        <v>0</v>
+        <v>-0.09585499893646006</v>
       </c>
       <c r="GC4" t="n">
         <v>-0</v>
       </c>
       <c r="GD4" t="n">
-        <v>0.07571693089079957</v>
+        <v>0</v>
       </c>
       <c r="GE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF4" t="n">
-        <v>0.06127483613959271</v>
+        <v>0</v>
       </c>
       <c r="GG4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="5">
@@ -2714,133 +2714,133 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.1013930200188927</v>
       </c>
       <c r="C5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.05291270903325015</v>
+        <v>-0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3243480128388778</v>
+        <v>-0.01476391645002415</v>
       </c>
       <c r="F5" t="n">
-        <v>-0</v>
+        <v>-0.02692320290552111</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.538941413402906</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>0.05949375162102999</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.04142133345913598</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0.311846377703547</v>
+        <v>-0.01370706418493594</v>
       </c>
       <c r="O5" t="n">
-        <v>-0</v>
+        <v>-0.01398485880648344</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.533314265568084</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>-0</v>
+        <v>-0.0005247632710165728</v>
       </c>
       <c r="U5" t="n">
         <v>-0</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.1478197421987468</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.09420956927112334</v>
+        <v>-0.01100244580450577</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>0.02396087614549757</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.2630813374156052</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
         <v>-0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>0.02682956401638845</v>
       </c>
       <c r="AD5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>-0.03928159171700796</v>
+        <v>-0</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.04315564314286065</v>
+        <v>0.02278732189048916</v>
       </c>
       <c r="AG5" t="n">
-        <v>-0</v>
+        <v>-0.003389302192603711</v>
       </c>
       <c r="AH5" t="n">
         <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>-0.04426065004568364</v>
+        <v>-0</v>
       </c>
       <c r="AJ5" t="n">
         <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>0.01043767373842258</v>
       </c>
       <c r="AM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.001204376380014039</v>
+        <v>0</v>
       </c>
       <c r="AO5" t="n">
-        <v>-0.1192361721897055</v>
+        <v>-0.01085303241577615</v>
       </c>
       <c r="AP5" t="n">
-        <v>0</v>
+        <v>-0.01165457592839667</v>
       </c>
       <c r="AQ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.05613107683950534</v>
+        <v>-0</v>
       </c>
       <c r="AS5" t="n">
         <v>0</v>
@@ -2849,25 +2849,25 @@
         <v>-0</v>
       </c>
       <c r="AU5" t="n">
-        <v>0</v>
+        <v>0.05802229418986738</v>
       </c>
       <c r="AV5" t="n">
         <v>0</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.05678437358127709</v>
+        <v>0</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.2690119755176706</v>
+        <v>-0.006523792298507905</v>
       </c>
       <c r="AY5" t="n">
-        <v>0</v>
+        <v>-0.002720651640580442</v>
       </c>
       <c r="AZ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.3090386133975371</v>
+        <v>-0</v>
       </c>
       <c r="BB5" t="n">
         <v>-0</v>
@@ -2876,79 +2876,79 @@
         <v>0</v>
       </c>
       <c r="BD5" t="n">
-        <v>0</v>
+        <v>0.03042360080134028</v>
       </c>
       <c r="BE5" t="n">
         <v>0</v>
       </c>
       <c r="BF5" t="n">
-        <v>-0.09897213212561198</v>
+        <v>0</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.02204273013063832</v>
+        <v>-0.01705893953797247</v>
       </c>
       <c r="BH5" t="n">
-        <v>-0</v>
+        <v>-0.008953705274711506</v>
       </c>
       <c r="BI5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.02916405991722799</v>
+        <v>0</v>
       </c>
       <c r="BK5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL5" t="n">
         <v>-0</v>
       </c>
       <c r="BM5" t="n">
-        <v>-0</v>
+        <v>0.0396504051007688</v>
       </c>
       <c r="BN5" t="n">
         <v>-0</v>
       </c>
       <c r="BO5" t="n">
-        <v>-0.1038753786944501</v>
+        <v>-0</v>
       </c>
       <c r="BP5" t="n">
-        <v>-0.07148569021449834</v>
+        <v>0.02285789309316879</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0</v>
+        <v>0.01584491755540146</v>
       </c>
       <c r="BR5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS5" t="n">
-        <v>-0.1588605985355896</v>
+        <v>0</v>
       </c>
       <c r="BT5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU5" t="n">
         <v>-0</v>
       </c>
       <c r="BV5" t="n">
-        <v>-0</v>
+        <v>0.0399493007452049</v>
       </c>
       <c r="BW5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.07775320397246263</v>
+        <v>-0</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.2115664693291027</v>
+        <v>-0.01144656811353543</v>
       </c>
       <c r="BZ5" t="n">
-        <v>-0</v>
+        <v>0.0248089662038786</v>
       </c>
       <c r="CA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.329040116816101</v>
+        <v>-0</v>
       </c>
       <c r="CC5" t="n">
         <v>-0</v>
@@ -2957,133 +2957,133 @@
         <v>-0</v>
       </c>
       <c r="CE5" t="n">
-        <v>0</v>
+        <v>-0.01400271209626749</v>
       </c>
       <c r="CF5" t="n">
         <v>-0</v>
       </c>
       <c r="CG5" t="n">
-        <v>0.0007558445032136799</v>
+        <v>0</v>
       </c>
       <c r="CH5" t="n">
-        <v>-0.1254858021996605</v>
+        <v>-0.001744532856698724</v>
       </c>
       <c r="CI5" t="n">
-        <v>0</v>
+        <v>0.008466007795617628</v>
       </c>
       <c r="CJ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK5" t="n">
-        <v>-0.1202716780112245</v>
+        <v>0</v>
       </c>
       <c r="CL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CN5" t="n">
-        <v>0</v>
+        <v>0.003030877652169845</v>
       </c>
       <c r="CO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP5" t="n">
-        <v>-0.08173785699409916</v>
+        <v>-0</v>
       </c>
       <c r="CQ5" t="n">
-        <v>-0.1917073557128477</v>
+        <v>-0.007316013292108812</v>
       </c>
       <c r="CR5" t="n">
-        <v>-0</v>
+        <v>-0.03766512416560198</v>
       </c>
       <c r="CS5" t="n">
         <v>0</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.002223865008274976</v>
+        <v>0</v>
       </c>
       <c r="CU5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV5" t="n">
         <v>0</v>
       </c>
       <c r="CW5" t="n">
-        <v>-0</v>
+        <v>-0.01154458452623927</v>
       </c>
       <c r="CX5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY5" t="n">
-        <v>0.01136087574008299</v>
+        <v>0</v>
       </c>
       <c r="CZ5" t="n">
-        <v>-0.1390363744433606</v>
+        <v>-0.001575663046008324</v>
       </c>
       <c r="DA5" t="n">
-        <v>-0</v>
+        <v>0.01530744060483111</v>
       </c>
       <c r="DB5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC5" t="n">
-        <v>-0.1670550879906045</v>
+        <v>0</v>
       </c>
       <c r="DD5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF5" t="n">
-        <v>-0</v>
+        <v>-0.003277149068271706</v>
       </c>
       <c r="DG5" t="n">
         <v>-0</v>
       </c>
       <c r="DH5" t="n">
-        <v>0.0351876487841861</v>
+        <v>0</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.0362525954022137</v>
+        <v>0.009986802976091436</v>
       </c>
       <c r="DJ5" t="n">
-        <v>0</v>
+        <v>-0.002844086271155915</v>
       </c>
       <c r="DK5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL5" t="n">
-        <v>-0.01628547965645841</v>
+        <v>-0</v>
       </c>
       <c r="DM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO5" t="n">
-        <v>-0</v>
+        <v>-0.01784921794343449</v>
       </c>
       <c r="DP5" t="n">
         <v>-0</v>
       </c>
       <c r="DQ5" t="n">
-        <v>-0.09077239674989482</v>
+        <v>0</v>
       </c>
       <c r="DR5" t="n">
-        <v>-0.06035590335197051</v>
+        <v>0.02970758905470901</v>
       </c>
       <c r="DS5" t="n">
-        <v>-0</v>
+        <v>0.004613825417584776</v>
       </c>
       <c r="DT5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU5" t="n">
-        <v>0.02488556501029287</v>
+        <v>-0</v>
       </c>
       <c r="DV5" t="n">
         <v>-0</v>
@@ -3092,187 +3092,187 @@
         <v>-0</v>
       </c>
       <c r="DX5" t="n">
-        <v>0</v>
+        <v>-0.01349604358333968</v>
       </c>
       <c r="DY5" t="n">
         <v>0</v>
       </c>
       <c r="DZ5" t="n">
-        <v>-0.06505612632285163</v>
+        <v>0</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.08764783804577982</v>
+        <v>-0.02992332521173914</v>
       </c>
       <c r="EB5" t="n">
-        <v>0</v>
+        <v>-0.01444058263520023</v>
       </c>
       <c r="EC5" t="n">
         <v>0</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.04449626357949218</v>
+        <v>-0</v>
       </c>
       <c r="EE5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG5" t="n">
-        <v>-0</v>
+        <v>-0.009733915207784058</v>
       </c>
       <c r="EH5" t="n">
         <v>-0</v>
       </c>
       <c r="EI5" t="n">
-        <v>0.07915211415332858</v>
+        <v>0</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.01513802434721519</v>
+        <v>0.001603246022791872</v>
       </c>
       <c r="EK5" t="n">
-        <v>0</v>
+        <v>0.007269865583020899</v>
       </c>
       <c r="EL5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM5" t="n">
-        <v>-0.2142648116236669</v>
+        <v>0</v>
       </c>
       <c r="EN5" t="n">
         <v>-0</v>
       </c>
       <c r="EO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP5" t="n">
-        <v>-0</v>
+        <v>-0.01022204796892789</v>
       </c>
       <c r="EQ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER5" t="n">
-        <v>-0.1552664330777621</v>
+        <v>-0</v>
       </c>
       <c r="ES5" t="n">
-        <v>-0.1642876535322717</v>
+        <v>-0.02302889772525411</v>
       </c>
       <c r="ET5" t="n">
-        <v>-0</v>
+        <v>-0.02534268884151311</v>
       </c>
       <c r="EU5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV5" t="n">
-        <v>0.07037299455878904</v>
+        <v>0</v>
       </c>
       <c r="EW5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX5" t="n">
         <v>-0</v>
       </c>
       <c r="EY5" t="n">
-        <v>0</v>
+        <v>-0.008551801569926906</v>
       </c>
       <c r="EZ5" t="n">
         <v>-0</v>
       </c>
       <c r="FA5" t="n">
-        <v>0.01218036393992531</v>
+        <v>0</v>
       </c>
       <c r="FB5" t="n">
-        <v>-0.1259682129447027</v>
+        <v>-0.005574539844140658</v>
       </c>
       <c r="FC5" t="n">
-        <v>-0</v>
+        <v>0.01759354803999283</v>
       </c>
       <c r="FD5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE5" t="n">
-        <v>-0.1733906297172681</v>
+        <v>0</v>
       </c>
       <c r="FF5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG5" t="n">
         <v>0</v>
       </c>
       <c r="FH5" t="n">
-        <v>-0</v>
+        <v>-0.007676269412915914</v>
       </c>
       <c r="FI5" t="n">
         <v>-0</v>
       </c>
       <c r="FJ5" t="n">
-        <v>-0.01796953282623657</v>
+        <v>-0</v>
       </c>
       <c r="FK5" t="n">
-        <v>-0.07626471354773462</v>
+        <v>-0.04146795611290314</v>
       </c>
       <c r="FL5" t="n">
-        <v>0</v>
+        <v>0.007428460358407876</v>
       </c>
       <c r="FM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN5" t="n">
-        <v>-0.1369911447331661</v>
+        <v>-0</v>
       </c>
       <c r="FO5" t="n">
         <v>0</v>
       </c>
       <c r="FP5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0</v>
+        <v>0.005807123270566028</v>
       </c>
       <c r="FR5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS5" t="n">
-        <v>-0.1205688094120918</v>
+        <v>-0</v>
       </c>
       <c r="FT5" t="n">
-        <v>-0.002300201141285594</v>
+        <v>0.002163308701449424</v>
       </c>
       <c r="FU5" t="n">
-        <v>0</v>
+        <v>0.01413924933796687</v>
       </c>
       <c r="FV5" t="n">
         <v>-0</v>
       </c>
       <c r="FW5" t="n">
-        <v>0.007817331047150081</v>
+        <v>-0</v>
       </c>
       <c r="FX5" t="n">
         <v>-0</v>
       </c>
       <c r="FY5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ5" t="n">
-        <v>-0</v>
+        <v>-0.02183090561186395</v>
       </c>
       <c r="GA5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB5" t="n">
-        <v>-0.0918827844113965</v>
+        <v>0</v>
       </c>
       <c r="GC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD5" t="n">
-        <v>-0</v>
+        <v>-0.01174530165264869</v>
       </c>
       <c r="GE5" t="n">
         <v>0</v>
       </c>
       <c r="GF5" t="n">
-        <v>-0.04743817228684258</v>
+        <v>0</v>
       </c>
       <c r="GG5" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
@@ -3304,10 +3304,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -3358,10 +3358,10 @@
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
@@ -3385,10 +3385,10 @@
         <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AL6" t="n">
         <v>0</v>
@@ -3412,10 +3412,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -3439,10 +3439,10 @@
         <v>0</v>
       </c>
       <c r="BB6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD6" t="n">
         <v>0</v>
@@ -3466,10 +3466,10 @@
         <v>0</v>
       </c>
       <c r="BK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM6" t="n">
         <v>0</v>
@@ -3493,10 +3493,10 @@
         <v>0</v>
       </c>
       <c r="BT6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV6" t="n">
         <v>0</v>
@@ -3520,10 +3520,10 @@
         <v>0</v>
       </c>
       <c r="CC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE6" t="n">
         <v>0</v>
@@ -3547,10 +3547,10 @@
         <v>0</v>
       </c>
       <c r="CL6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CN6" t="n">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>0</v>
       </c>
       <c r="CU6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV6" t="n">
         <v>0</v>
@@ -3631,7 +3631,7 @@
         <v>0</v>
       </c>
       <c r="DN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO6" t="n">
         <v>0</v>
@@ -3655,7 +3655,7 @@
         <v>0</v>
       </c>
       <c r="DV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW6" t="n">
         <v>0</v>
@@ -3685,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="EF6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG6" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>0</v>
       </c>
       <c r="EN6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EP6" t="n">
         <v>0</v>
@@ -3736,10 +3736,10 @@
         <v>0</v>
       </c>
       <c r="EW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY6" t="n">
         <v>0</v>
@@ -3763,10 +3763,10 @@
         <v>0</v>
       </c>
       <c r="FF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH6" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="FO6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ6" t="n">
         <v>0</v>
@@ -3817,7 +3817,7 @@
         <v>0</v>
       </c>
       <c r="FX6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY6" t="n">
         <v>0</v>
@@ -3849,10 +3849,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0</v>
+        <v>0.5187384408908147</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.264335452395299</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -3861,79 +3861,79 @@
         <v>-0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3558140410512232</v>
+        <v>-0.1293033273028064</v>
       </c>
       <c r="F7" t="n">
-        <v>1.658411141270473</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>-0</v>
+        <v>-0.1305206772818427</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>-0</v>
+        <v>0.4950285545432246</v>
       </c>
       <c r="K7" t="n">
-        <v>-1.238939716165981</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2180434195530595</v>
+        <v>-0.08047484404872812</v>
       </c>
       <c r="O7" t="n">
-        <v>1.682891102685354</v>
+        <v>-0</v>
       </c>
       <c r="P7" t="n">
-        <v>-0</v>
+        <v>-0.1281939268822885</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>0.06033294483700526</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1030054798085343</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>-0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.1877067102368054</v>
+        <v>0.09077288044931368</v>
       </c>
       <c r="X7" t="n">
-        <v>0.4391272161725311</v>
+        <v>-0</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0</v>
+        <v>-0.01447034882894241</v>
       </c>
       <c r="Z7" t="n">
         <v>-0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB7" t="n">
-        <v>-0</v>
+        <v>0.113425528526334</v>
       </c>
       <c r="AC7" t="n">
-        <v>-0.2479494322647008</v>
+        <v>-0</v>
       </c>
       <c r="AD7" t="n">
         <v>-0</v>
@@ -3942,268 +3942,268 @@
         <v>-0</v>
       </c>
       <c r="AF7" t="n">
-        <v>-0.1795565721619278</v>
+        <v>0.06848479511119852</v>
       </c>
       <c r="AG7" t="n">
-        <v>-0.1711337209296303</v>
+        <v>-0</v>
       </c>
       <c r="AH7" t="n">
-        <v>-0</v>
+        <v>-0.005627378008069782</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ7" t="n">
         <v>-0</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>0.0402776968151948</v>
       </c>
       <c r="AL7" t="n">
-        <v>-0.2336825959966194</v>
+        <v>-0</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.1064312774110716</v>
+        <v>0.06549056195707974</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.3093409220193271</v>
+        <v>-0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>-0</v>
+        <v>-0.02625166008355293</v>
       </c>
       <c r="AR7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS7" t="n">
         <v>0</v>
       </c>
       <c r="AT7" t="n">
-        <v>0</v>
+        <v>0.328868985510913</v>
       </c>
       <c r="AU7" t="n">
-        <v>-0.578338579506231</v>
+        <v>-0</v>
       </c>
       <c r="AV7" t="n">
         <v>0</v>
       </c>
       <c r="AW7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.01811971802672853</v>
+        <v>-0.103356019475157</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.8325321845347073</v>
+        <v>0</v>
       </c>
       <c r="AZ7" t="n">
-        <v>-0</v>
+        <v>-0.1006686092811303</v>
       </c>
       <c r="BA7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB7" t="n">
         <v>0</v>
       </c>
       <c r="BC7" t="n">
-        <v>-0</v>
+        <v>0.2034466514331489</v>
       </c>
       <c r="BD7" t="n">
-        <v>-0.4770863031834423</v>
+        <v>0</v>
       </c>
       <c r="BE7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG7" t="n">
-        <v>-0.08609637239319716</v>
+        <v>-0.09309130088120142</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.1465390035543312</v>
+        <v>0</v>
       </c>
       <c r="BI7" t="n">
-        <v>-0</v>
+        <v>0.008930697966374404</v>
       </c>
       <c r="BJ7" t="n">
         <v>0</v>
       </c>
       <c r="BK7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL7" t="n">
-        <v>-0</v>
+        <v>0.01169795379539777</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.01340995503893084</v>
+        <v>0</v>
       </c>
       <c r="BN7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO7" t="n">
         <v>-0</v>
       </c>
       <c r="BP7" t="n">
-        <v>-0.489142139390819</v>
+        <v>-0.03398600121138429</v>
       </c>
       <c r="BQ7" t="n">
-        <v>-0.4209892167565623</v>
+        <v>0</v>
       </c>
       <c r="BR7" t="n">
-        <v>0</v>
+        <v>0.08866388167421514</v>
       </c>
       <c r="BS7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT7" t="n">
         <v>0</v>
       </c>
       <c r="BU7" t="n">
-        <v>0</v>
+        <v>0.1936743239594573</v>
       </c>
       <c r="BV7" t="n">
-        <v>-0.3014954146977585</v>
+        <v>-0</v>
       </c>
       <c r="BW7" t="n">
         <v>0</v>
       </c>
       <c r="BX7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.2850199596304833</v>
+        <v>-0.0317168587646096</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0.8846070599351321</v>
+        <v>0</v>
       </c>
       <c r="CA7" t="n">
-        <v>-0</v>
+        <v>-0.02262369367500303</v>
       </c>
       <c r="CB7" t="n">
         <v>-0</v>
       </c>
       <c r="CC7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD7" t="n">
-        <v>-0</v>
+        <v>-0.1237876043911628</v>
       </c>
       <c r="CE7" t="n">
-        <v>0.3857976699352743</v>
+        <v>0</v>
       </c>
       <c r="CF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH7" t="n">
-        <v>-0.1149760732833245</v>
+        <v>-0.02268464379633723</v>
       </c>
       <c r="CI7" t="n">
-        <v>-0.309209299334063</v>
+        <v>0</v>
       </c>
       <c r="CJ7" t="n">
-        <v>0</v>
+        <v>0.05200802186872877</v>
       </c>
       <c r="CK7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL7" t="n">
         <v>0</v>
       </c>
       <c r="CM7" t="n">
-        <v>0</v>
+        <v>-0.08515928782571004</v>
       </c>
       <c r="CN7" t="n">
-        <v>0.03331782861813899</v>
+        <v>0</v>
       </c>
       <c r="CO7" t="n">
         <v>0</v>
       </c>
       <c r="CP7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CQ7" t="n">
-        <v>-0.02683259909429602</v>
+        <v>-0.08265034874770381</v>
       </c>
       <c r="CR7" t="n">
-        <v>0.4093680979021672</v>
+        <v>-0</v>
       </c>
       <c r="CS7" t="n">
-        <v>0</v>
+        <v>-0.03677345153591956</v>
       </c>
       <c r="CT7" t="n">
         <v>-0</v>
       </c>
       <c r="CU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV7" t="n">
-        <v>0</v>
+        <v>-0.1045952443022154</v>
       </c>
       <c r="CW7" t="n">
-        <v>0.3401116719010305</v>
+        <v>-0</v>
       </c>
       <c r="CX7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ7" t="n">
-        <v>-0.04886180732844946</v>
+        <v>-0.02111043688880743</v>
       </c>
       <c r="DA7" t="n">
-        <v>-0.2688908670436978</v>
+        <v>-0</v>
       </c>
       <c r="DB7" t="n">
-        <v>-0</v>
+        <v>0.04234295418040791</v>
       </c>
       <c r="DC7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE7" t="n">
-        <v>-0</v>
+        <v>0.0415620425341622</v>
       </c>
       <c r="DF7" t="n">
-        <v>-0.1030009195960328</v>
+        <v>0</v>
       </c>
       <c r="DG7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH7" t="n">
         <v>-0</v>
       </c>
       <c r="DI7" t="n">
-        <v>-0.004355710266175987</v>
+        <v>-0.0008482704007220621</v>
       </c>
       <c r="DJ7" t="n">
-        <v>-0.02124570386412159</v>
+        <v>-0</v>
       </c>
       <c r="DK7" t="n">
-        <v>0</v>
+        <v>-0.04888177178663428</v>
       </c>
       <c r="DL7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM7" t="n">
         <v>0</v>
       </c>
       <c r="DN7" t="n">
-        <v>-0</v>
+        <v>-0.04367939033948634</v>
       </c>
       <c r="DO7" t="n">
-        <v>0.008177679463757076</v>
+        <v>0</v>
       </c>
       <c r="DP7" t="n">
         <v>-0</v>
@@ -4212,202 +4212,202 @@
         <v>0</v>
       </c>
       <c r="DR7" t="n">
-        <v>-0.02061873935859223</v>
+        <v>-0.1601337653449757</v>
       </c>
       <c r="DS7" t="n">
-        <v>-0.254569606275292</v>
+        <v>-0</v>
       </c>
       <c r="DT7" t="n">
-        <v>0</v>
+        <v>-0.06968700419470215</v>
       </c>
       <c r="DU7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV7" t="n">
         <v>-0</v>
       </c>
       <c r="DW7" t="n">
-        <v>-0</v>
+        <v>-0.09023952419064872</v>
       </c>
       <c r="DX7" t="n">
-        <v>0.1642294361038601</v>
+        <v>-0</v>
       </c>
       <c r="DY7" t="n">
         <v>0</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.06612220136419823</v>
+        <v>-0.09773451820568994</v>
       </c>
       <c r="EB7" t="n">
-        <v>-0.03614164692958108</v>
+        <v>0</v>
       </c>
       <c r="EC7" t="n">
-        <v>-0</v>
+        <v>-0.02301405695697844</v>
       </c>
       <c r="ED7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE7" t="n">
         <v>0</v>
       </c>
       <c r="EF7" t="n">
-        <v>-0</v>
+        <v>-0.154368177085001</v>
       </c>
       <c r="EG7" t="n">
-        <v>0.5803189289005146</v>
+        <v>-0</v>
       </c>
       <c r="EH7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI7" t="n">
         <v>-0</v>
       </c>
       <c r="EJ7" t="n">
-        <v>-0.3428226749389041</v>
+        <v>0.0602451281600434</v>
       </c>
       <c r="EK7" t="n">
-        <v>-0.3875837048591597</v>
+        <v>0</v>
       </c>
       <c r="EL7" t="n">
-        <v>0</v>
+        <v>0.05208378204693102</v>
       </c>
       <c r="EM7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN7" t="n">
         <v>-0</v>
       </c>
       <c r="EO7" t="n">
-        <v>-0</v>
+        <v>-0.06266744548632082</v>
       </c>
       <c r="EP7" t="n">
-        <v>0.2019072210953328</v>
+        <v>0</v>
       </c>
       <c r="EQ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER7" t="n">
         <v>-0</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.1463087833754215</v>
+        <v>-0.01044613928602742</v>
       </c>
       <c r="ET7" t="n">
-        <v>-0.4188067171498767</v>
+        <v>-0</v>
       </c>
       <c r="EU7" t="n">
-        <v>0</v>
+        <v>0.02324446964479874</v>
       </c>
       <c r="EV7" t="n">
         <v>-0</v>
       </c>
       <c r="EW7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX7" t="n">
-        <v>-0</v>
+        <v>-0.08879114995454562</v>
       </c>
       <c r="EY7" t="n">
-        <v>0.3700784344338135</v>
+        <v>0</v>
       </c>
       <c r="EZ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB7" t="n">
-        <v>-0.1142324330753181</v>
+        <v>-0.03315092312758949</v>
       </c>
       <c r="FC7" t="n">
-        <v>-0.3373593090331316</v>
+        <v>0</v>
       </c>
       <c r="FD7" t="n">
-        <v>0</v>
+        <v>0.07513365134086461</v>
       </c>
       <c r="FE7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF7" t="n">
         <v>0</v>
       </c>
       <c r="FG7" t="n">
-        <v>-0</v>
+        <v>0.03638835062452336</v>
       </c>
       <c r="FH7" t="n">
-        <v>0.1329577936148178</v>
+        <v>0</v>
       </c>
       <c r="FI7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ7" t="n">
         <v>0</v>
       </c>
       <c r="FK7" t="n">
-        <v>-0.06961488636332967</v>
+        <v>0.02915216059314001</v>
       </c>
       <c r="FL7" t="n">
-        <v>-0.222029089754878</v>
+        <v>0</v>
       </c>
       <c r="FM7" t="n">
-        <v>0</v>
+        <v>0.03566637568191534</v>
       </c>
       <c r="FN7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP7" t="n">
-        <v>0</v>
+        <v>-0.1681689245280918</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0.2273037356103871</v>
+        <v>-0</v>
       </c>
       <c r="FR7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT7" t="n">
-        <v>-0.008443863834534953</v>
+        <v>-0.003894668110011231</v>
       </c>
       <c r="FU7" t="n">
-        <v>-0.5511259375334001</v>
+        <v>-0</v>
       </c>
       <c r="FV7" t="n">
-        <v>-0</v>
+        <v>-0.06305513031014</v>
       </c>
       <c r="FW7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY7" t="n">
-        <v>0</v>
+        <v>0.04539969897408667</v>
       </c>
       <c r="FZ7" t="n">
-        <v>-0.1371756765816611</v>
+        <v>-0</v>
       </c>
       <c r="GA7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GB7" t="n">
         <v>0</v>
       </c>
       <c r="GC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD7" t="n">
-        <v>0.07622944860603593</v>
+        <v>0</v>
       </c>
       <c r="GE7" t="n">
-        <v>0</v>
+        <v>0.08215008583515562</v>
       </c>
       <c r="GF7" t="n">
         <v>-0</v>
@@ -4421,133 +4421,133 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>-1.040657130199931</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1940834456858387</v>
+        <v>0.603232950786416</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.5087161746094776</v>
+        <v>1.08861522491121</v>
       </c>
       <c r="G8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6026772500648161</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>-0.957657844731111</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N8" t="n">
-        <v>0.3389537412418746</v>
+        <v>0.3739402837861046</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.4412902892907922</v>
+        <v>1.074423171293953</v>
       </c>
       <c r="P8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.7232205371294839</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>-0</v>
       </c>
       <c r="S8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>-0.1277280419626577</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V8" t="n">
         <v>-0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.1587745844986609</v>
+        <v>0.2248593407581904</v>
       </c>
       <c r="X8" t="n">
-        <v>-0.1006763968796847</v>
+        <v>0.05284521718553527</v>
       </c>
       <c r="Y8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.1785088305230257</v>
+        <v>-0</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB8" t="n">
         <v>-0</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0</v>
+        <v>-0.1631392184909225</v>
       </c>
       <c r="AD8" t="n">
         <v>-0</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.1477316774167462</v>
+        <v>0.1568948345019189</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.01909333729954554</v>
+        <v>-0.01638957866485016</v>
       </c>
       <c r="AH8" t="n">
         <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.02406294167434796</v>
+        <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>-0.3086971729888011</v>
       </c>
       <c r="AM8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>-0.2269249856616839</v>
+        <v>-0.1329909360657681</v>
       </c>
       <c r="AP8" t="n">
-        <v>-0.04294904764896495</v>
+        <v>0.2680694651635508</v>
       </c>
       <c r="AQ8" t="n">
         <v>-0</v>
       </c>
       <c r="AR8" t="n">
-        <v>-0.02487720705762661</v>
+        <v>0</v>
       </c>
       <c r="AS8" t="n">
         <v>-0</v>
@@ -4556,7 +4556,7 @@
         <v>0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>-0.9300942054331449</v>
       </c>
       <c r="AV8" t="n">
         <v>-0</v>
@@ -4565,133 +4565,133 @@
         <v>-0</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.1174604451427505</v>
+        <v>0.2026024687908446</v>
       </c>
       <c r="AY8" t="n">
-        <v>-0.2398877605883871</v>
+        <v>0.8255858753496623</v>
       </c>
       <c r="AZ8" t="n">
         <v>-0</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.2818414464459655</v>
+        <v>0</v>
       </c>
       <c r="BB8" t="n">
         <v>-0</v>
       </c>
       <c r="BC8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>-0.1291805033203158</v>
       </c>
       <c r="BE8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BF8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.1687279623288383</v>
+        <v>0.4992109259977229</v>
       </c>
       <c r="BH8" t="n">
-        <v>-0.08859717590489981</v>
+        <v>0.183278735907317</v>
       </c>
       <c r="BI8" t="n">
         <v>0</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.2436246791847702</v>
+        <v>-0</v>
       </c>
       <c r="BK8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL8" t="n">
         <v>0</v>
       </c>
       <c r="BM8" t="n">
-        <v>-0</v>
+        <v>-0.3872564444890048</v>
       </c>
       <c r="BN8" t="n">
         <v>-0</v>
       </c>
       <c r="BO8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BP8" t="n">
-        <v>-0.03935480756626928</v>
+        <v>0.0601512282529964</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0.06100189868355697</v>
+        <v>-0.01073230538889591</v>
       </c>
       <c r="BR8" t="n">
         <v>0</v>
       </c>
       <c r="BS8" t="n">
-        <v>-0.03708702966751873</v>
+        <v>-0</v>
       </c>
       <c r="BT8" t="n">
         <v>-0</v>
       </c>
       <c r="BU8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV8" t="n">
-        <v>-0</v>
+        <v>-0.5313036055901291</v>
       </c>
       <c r="BW8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BX8" t="n">
         <v>-0</v>
       </c>
       <c r="BY8" t="n">
-        <v>-0.02219566460420742</v>
+        <v>0.205591708626452</v>
       </c>
       <c r="BZ8" t="n">
-        <v>-0.2278643551688957</v>
+        <v>0.323726654937072</v>
       </c>
       <c r="CA8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB8" t="n">
-        <v>0.1998159726276384</v>
+        <v>0</v>
       </c>
       <c r="CC8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD8" t="n">
         <v>0</v>
       </c>
       <c r="CE8" t="n">
-        <v>-0</v>
+        <v>0.1500903823038542</v>
       </c>
       <c r="CF8" t="n">
         <v>-0</v>
       </c>
       <c r="CG8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH8" t="n">
-        <v>-0.07317510620407713</v>
+        <v>-0.07505972635743006</v>
       </c>
       <c r="CI8" t="n">
-        <v>0.07897575000709181</v>
+        <v>-0.2021536558079208</v>
       </c>
       <c r="CJ8" t="n">
         <v>0</v>
       </c>
       <c r="CK8" t="n">
-        <v>-0.1094046903357078</v>
+        <v>-0</v>
       </c>
       <c r="CL8" t="n">
         <v>-0</v>
       </c>
       <c r="CM8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CN8" t="n">
-        <v>-0</v>
+        <v>-0.03094223241003758</v>
       </c>
       <c r="CO8" t="n">
         <v>0</v>
@@ -4700,205 +4700,205 @@
         <v>-0</v>
       </c>
       <c r="CQ8" t="n">
-        <v>-0.1277903832830637</v>
+        <v>-0.1282745506639892</v>
       </c>
       <c r="CR8" t="n">
-        <v>-0.1165825369375834</v>
+        <v>-0.01564534862484764</v>
       </c>
       <c r="CS8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT8" t="n">
-        <v>0.0676563952569718</v>
+        <v>0</v>
       </c>
       <c r="CU8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV8" t="n">
         <v>-0</v>
       </c>
       <c r="CW8" t="n">
-        <v>0</v>
+        <v>0.104912640897363</v>
       </c>
       <c r="CX8" t="n">
         <v>0</v>
       </c>
       <c r="CY8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CZ8" t="n">
-        <v>-0.06495611092188182</v>
+        <v>-0.06594623580648655</v>
       </c>
       <c r="DA8" t="n">
-        <v>0.07954475299268247</v>
+        <v>-0.2514010596595581</v>
       </c>
       <c r="DB8" t="n">
         <v>-0</v>
       </c>
       <c r="DC8" t="n">
-        <v>-0.1420030737284301</v>
+        <v>0</v>
       </c>
       <c r="DD8" t="n">
         <v>0</v>
       </c>
       <c r="DE8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF8" t="n">
-        <v>-0</v>
+        <v>0.1122691750494108</v>
       </c>
       <c r="DG8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DI8" t="n">
-        <v>-0.0772443566838778</v>
+        <v>-0.2318810247217084</v>
       </c>
       <c r="DJ8" t="n">
-        <v>0.05435461697108012</v>
+        <v>0.06306343874306108</v>
       </c>
       <c r="DK8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL8" t="n">
-        <v>-0.02932611396176186</v>
+        <v>-0</v>
       </c>
       <c r="DM8" t="n">
         <v>-0</v>
       </c>
       <c r="DN8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO8" t="n">
-        <v>-0</v>
+        <v>0.07438810559949575</v>
       </c>
       <c r="DP8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR8" t="n">
-        <v>0.02764015322088811</v>
+        <v>0.1678415721631782</v>
       </c>
       <c r="DS8" t="n">
-        <v>0.008271819705470281</v>
+        <v>0.2033849182630661</v>
       </c>
       <c r="DT8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU8" t="n">
-        <v>0.0706058227250322</v>
+        <v>0</v>
       </c>
       <c r="DV8" t="n">
         <v>-0</v>
       </c>
       <c r="DW8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX8" t="n">
-        <v>0</v>
+        <v>0.03454241629173381</v>
       </c>
       <c r="DY8" t="n">
         <v>-0</v>
       </c>
       <c r="DZ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EA8" t="n">
-        <v>0.07411521153584193</v>
+        <v>-0.0725473091015166</v>
       </c>
       <c r="EB8" t="n">
-        <v>-0.01979265281081631</v>
+        <v>-0.09543334398324517</v>
       </c>
       <c r="EC8" t="n">
         <v>0</v>
       </c>
       <c r="ED8" t="n">
-        <v>-0.02167743386202033</v>
+        <v>-0</v>
       </c>
       <c r="EE8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG8" t="n">
-        <v>-0</v>
+        <v>0.1432999049817187</v>
       </c>
       <c r="EH8" t="n">
         <v>-0</v>
       </c>
       <c r="EI8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ8" t="n">
-        <v>0.009944019157064473</v>
+        <v>-0.140049025765717</v>
       </c>
       <c r="EK8" t="n">
-        <v>0.09156095965106677</v>
+        <v>-0.1671005655053476</v>
       </c>
       <c r="EL8" t="n">
         <v>0</v>
       </c>
       <c r="EM8" t="n">
-        <v>-0.07758801259383404</v>
+        <v>-0</v>
       </c>
       <c r="EN8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO8" t="n">
         <v>-0</v>
       </c>
       <c r="EP8" t="n">
-        <v>-0</v>
+        <v>0.01950409740117599</v>
       </c>
       <c r="EQ8" t="n">
         <v>-0</v>
       </c>
       <c r="ER8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES8" t="n">
-        <v>-0.1587876269839931</v>
+        <v>0.07677163045795432</v>
       </c>
       <c r="ET8" t="n">
-        <v>0.057785009271375</v>
+        <v>-0.07805936405790367</v>
       </c>
       <c r="EU8" t="n">
         <v>0</v>
       </c>
       <c r="EV8" t="n">
-        <v>-0.07798516704580201</v>
+        <v>-0</v>
       </c>
       <c r="EW8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX8" t="n">
         <v>0</v>
       </c>
       <c r="EY8" t="n">
-        <v>-0</v>
+        <v>0.09021880078982664</v>
       </c>
       <c r="EZ8" t="n">
         <v>-0</v>
       </c>
       <c r="FA8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB8" t="n">
-        <v>-0.08693232413103814</v>
+        <v>-0.05530398905359362</v>
       </c>
       <c r="FC8" t="n">
-        <v>0.0804865754736741</v>
+        <v>-0.2094279244315371</v>
       </c>
       <c r="FD8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE8" t="n">
-        <v>-0.1535899986128546</v>
+        <v>-0</v>
       </c>
       <c r="FF8" t="n">
         <v>-0</v>
@@ -4907,79 +4907,79 @@
         <v>0</v>
       </c>
       <c r="FH8" t="n">
-        <v>-0</v>
+        <v>0.1466295822322563</v>
       </c>
       <c r="FI8" t="n">
         <v>0</v>
       </c>
       <c r="FJ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FK8" t="n">
-        <v>-0.1205934268440869</v>
+        <v>0.02983777668120834</v>
       </c>
       <c r="FL8" t="n">
-        <v>0.05533118399585459</v>
+        <v>-0.1180796269865514</v>
       </c>
       <c r="FM8" t="n">
         <v>-0</v>
       </c>
       <c r="FN8" t="n">
-        <v>-0.05312036551118627</v>
+        <v>0</v>
       </c>
       <c r="FO8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FP8" t="n">
         <v>-0</v>
       </c>
       <c r="FQ8" t="n">
-        <v>-0</v>
+        <v>0.120994693220997</v>
       </c>
       <c r="FR8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FT8" t="n">
-        <v>-0.01355616918143053</v>
+        <v>-0.06464184740236553</v>
       </c>
       <c r="FU8" t="n">
-        <v>0.1305483518177318</v>
+        <v>-0.169045255531229</v>
       </c>
       <c r="FV8" t="n">
         <v>0</v>
       </c>
       <c r="FW8" t="n">
-        <v>-0.1379093712998417</v>
+        <v>-0</v>
       </c>
       <c r="FX8" t="n">
         <v>-0</v>
       </c>
       <c r="FY8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FZ8" t="n">
-        <v>0</v>
+        <v>-0.1153693812272668</v>
       </c>
       <c r="GA8" t="n">
         <v>0</v>
       </c>
       <c r="GB8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC8" t="n">
         <v>-0</v>
       </c>
       <c r="GD8" t="n">
-        <v>-0.127239808266325</v>
+        <v>0.1643351689276935</v>
       </c>
       <c r="GE8" t="n">
         <v>0</v>
       </c>
       <c r="GF8" t="n">
-        <v>-0.01800276855399321</v>
+        <v>-0</v>
       </c>
       <c r="GG8" t="n">
         <v>0</v>
@@ -4990,79 +4990,79 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.06010886579705825</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.4717022393332315</v>
+        <v>0.1352150513253527</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.609869580004756</v>
+        <v>0.08484278078301091</v>
       </c>
       <c r="F9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3262180245766949</v>
+        <v>-0.191678863603664</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1215399793271161</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>0.1728531268929039</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.5237471415526618</v>
+        <v>0.09193059741118309</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0.5391948981055876</v>
+        <v>0.2414723093314478</v>
       </c>
       <c r="O9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0.2269367464509723</v>
+        <v>-0.1008834774671145</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.2030127759873495</v>
+        <v>-0</v>
       </c>
       <c r="R9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>-0</v>
+        <v>0.01230324497399259</v>
       </c>
       <c r="U9" t="n">
-        <v>-0.1237175292767743</v>
+        <v>0.04389288515853149</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.1729496609100903</v>
+        <v>0.0555379533217167</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>-0.1016205752763692</v>
+        <v>-0.09741592509347803</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.05600438687996988</v>
+        <v>-0</v>
       </c>
       <c r="AA9" t="n">
         <v>0</v>
@@ -5071,133 +5071,133 @@
         <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0</v>
+        <v>-0.09279071976582599</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.09398605991222816</v>
+        <v>0.05230438147067579</v>
       </c>
       <c r="AE9" t="n">
         <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.06034470159882039</v>
+        <v>0.08994190388695261</v>
       </c>
       <c r="AG9" t="n">
         <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>-0.05377313068834725</v>
+        <v>-0.00872285405172343</v>
       </c>
       <c r="AI9" t="n">
-        <v>-0.2158955278191855</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="n">
         <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>-0.03379995069287982</v>
       </c>
       <c r="AM9" t="n">
-        <v>-0.2103561450909165</v>
+        <v>0.07142305772406783</v>
       </c>
       <c r="AN9" t="n">
         <v>0</v>
       </c>
       <c r="AO9" t="n">
-        <v>-0.003394321800761831</v>
+        <v>0.01918753106158061</v>
       </c>
       <c r="AP9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>-0.05021902045534968</v>
+        <v>-0.08731621684817063</v>
       </c>
       <c r="AR9" t="n">
-        <v>-0.03343934007458673</v>
+        <v>-0</v>
       </c>
       <c r="AS9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT9" t="n">
         <v>0</v>
       </c>
       <c r="AU9" t="n">
-        <v>0</v>
+        <v>-0.0405322937109874</v>
       </c>
       <c r="AV9" t="n">
-        <v>-0.3780651907707337</v>
+        <v>0.1176069977158397</v>
       </c>
       <c r="AW9" t="n">
         <v>0</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.01675312115918939</v>
+        <v>0.003375697543326126</v>
       </c>
       <c r="AY9" t="n">
         <v>0</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.08254828900289811</v>
+        <v>0.0100797108628594</v>
       </c>
       <c r="BA9" t="n">
-        <v>-0.0545408185654142</v>
+        <v>-0</v>
       </c>
       <c r="BB9" t="n">
         <v>0</v>
       </c>
       <c r="BC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD9" t="n">
-        <v>0</v>
+        <v>0.05728476152503151</v>
       </c>
       <c r="BE9" t="n">
-        <v>-0.1068133651170339</v>
+        <v>-0.01052652600716875</v>
       </c>
       <c r="BF9" t="n">
         <v>0</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.4810027064879351</v>
+        <v>0.06068377604906924</v>
       </c>
       <c r="BH9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.06267964257063133</v>
+        <v>0.07506478538340138</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.2445482849102602</v>
+        <v>0</v>
       </c>
       <c r="BK9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL9" t="n">
         <v>0</v>
       </c>
       <c r="BM9" t="n">
-        <v>0</v>
+        <v>-0.1113596613961162</v>
       </c>
       <c r="BN9" t="n">
-        <v>0.2071115180144371</v>
+        <v>0.06673259830502072</v>
       </c>
       <c r="BO9" t="n">
         <v>-0</v>
       </c>
       <c r="BP9" t="n">
-        <v>0.05017830857273421</v>
+        <v>0.001226318371876139</v>
       </c>
       <c r="BQ9" t="n">
         <v>-0</v>
       </c>
       <c r="BR9" t="n">
-        <v>-0.03130014315818606</v>
+        <v>0.1480046544043673</v>
       </c>
       <c r="BS9" t="n">
-        <v>0.002292272427636371</v>
+        <v>0</v>
       </c>
       <c r="BT9" t="n">
         <v>0</v>
@@ -5206,106 +5206,106 @@
         <v>0</v>
       </c>
       <c r="BV9" t="n">
-        <v>0</v>
+        <v>0.02467869814531642</v>
       </c>
       <c r="BW9" t="n">
-        <v>-0.2479970384137263</v>
+        <v>0.0499905975569884</v>
       </c>
       <c r="BX9" t="n">
         <v>0</v>
       </c>
       <c r="BY9" t="n">
-        <v>0.1148888872783538</v>
+        <v>-0.02746849271747532</v>
       </c>
       <c r="BZ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CA9" t="n">
-        <v>0.0372960886159095</v>
+        <v>-0.1322177203956772</v>
       </c>
       <c r="CB9" t="n">
-        <v>-0.06904981912876959</v>
+        <v>0</v>
       </c>
       <c r="CC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD9" t="n">
         <v>0</v>
       </c>
       <c r="CE9" t="n">
-        <v>0</v>
+        <v>-0.02977043440824919</v>
       </c>
       <c r="CF9" t="n">
-        <v>0.1122532662319406</v>
+        <v>-0.01316124772040428</v>
       </c>
       <c r="CG9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH9" t="n">
-        <v>-0.1533414453298098</v>
+        <v>-0.03523305239189954</v>
       </c>
       <c r="CI9" t="n">
         <v>0</v>
       </c>
       <c r="CJ9" t="n">
-        <v>-0.02875023289479554</v>
+        <v>0.06111359699644118</v>
       </c>
       <c r="CK9" t="n">
-        <v>-0.01196292271417052</v>
+        <v>-0</v>
       </c>
       <c r="CL9" t="n">
         <v>0</v>
       </c>
       <c r="CM9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN9" t="n">
-        <v>-0</v>
+        <v>0.00509573847031698</v>
       </c>
       <c r="CO9" t="n">
-        <v>-0.03907659769463497</v>
+        <v>0.02571670707275449</v>
       </c>
       <c r="CP9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ9" t="n">
-        <v>-0.1052449441617845</v>
+        <v>-0.07730259546160065</v>
       </c>
       <c r="CR9" t="n">
         <v>-0</v>
       </c>
       <c r="CS9" t="n">
-        <v>0.1560883272639301</v>
+        <v>-0.1215138367165876</v>
       </c>
       <c r="CT9" t="n">
-        <v>-0.02057591219309885</v>
+        <v>-0</v>
       </c>
       <c r="CU9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW9" t="n">
-        <v>-0</v>
+        <v>-0.01154425821561103</v>
       </c>
       <c r="CX9" t="n">
-        <v>0.09860605417902531</v>
+        <v>-0.0143260397822526</v>
       </c>
       <c r="CY9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ9" t="n">
-        <v>-0.1866669288345684</v>
+        <v>-0.02039765707887406</v>
       </c>
       <c r="DA9" t="n">
         <v>-0</v>
       </c>
       <c r="DB9" t="n">
-        <v>-0.01633056507766041</v>
+        <v>0.06213723878602457</v>
       </c>
       <c r="DC9" t="n">
-        <v>-0.001889131240033888</v>
+        <v>0</v>
       </c>
       <c r="DD9" t="n">
         <v>-0</v>
@@ -5314,25 +5314,25 @@
         <v>-0</v>
       </c>
       <c r="DF9" t="n">
-        <v>0</v>
+        <v>0.07008153378190021</v>
       </c>
       <c r="DG9" t="n">
-        <v>0.2000041045391759</v>
+        <v>-0.02703543002919746</v>
       </c>
       <c r="DH9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI9" t="n">
-        <v>0.1086435667910942</v>
+        <v>0.03805953071050316</v>
       </c>
       <c r="DJ9" t="n">
         <v>0</v>
       </c>
       <c r="DK9" t="n">
-        <v>-0.1289479947482879</v>
+        <v>0.1706074217968746</v>
       </c>
       <c r="DL9" t="n">
-        <v>0.09811767609068836</v>
+        <v>-0</v>
       </c>
       <c r="DM9" t="n">
         <v>0</v>
@@ -5341,79 +5341,79 @@
         <v>-0</v>
       </c>
       <c r="DO9" t="n">
-        <v>0</v>
+        <v>0.02410632619643151</v>
       </c>
       <c r="DP9" t="n">
-        <v>0.01445980105452767</v>
+        <v>0.004269192308573102</v>
       </c>
       <c r="DQ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR9" t="n">
-        <v>0.06844347834178184</v>
+        <v>0.2263316177842888</v>
       </c>
       <c r="DS9" t="n">
         <v>-0</v>
       </c>
       <c r="DT9" t="n">
-        <v>0.03084144790293811</v>
+        <v>0.02131048718543697</v>
       </c>
       <c r="DU9" t="n">
-        <v>0.003311767581439142</v>
+        <v>-0</v>
       </c>
       <c r="DV9" t="n">
         <v>0</v>
       </c>
       <c r="DW9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX9" t="n">
-        <v>0</v>
+        <v>-0.01822210069569704</v>
       </c>
       <c r="DY9" t="n">
-        <v>0.08544069933274209</v>
+        <v>-0.07316623556853986</v>
       </c>
       <c r="DZ9" t="n">
         <v>0</v>
       </c>
       <c r="EA9" t="n">
-        <v>-0.03592819551364265</v>
+        <v>0.02265545764581146</v>
       </c>
       <c r="EB9" t="n">
         <v>0</v>
       </c>
       <c r="EC9" t="n">
-        <v>0.08757763273873014</v>
+        <v>-0.01182774722968878</v>
       </c>
       <c r="ED9" t="n">
-        <v>-0.007416625511077468</v>
+        <v>-0</v>
       </c>
       <c r="EE9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG9" t="n">
-        <v>-0</v>
+        <v>-0.03712424619258798</v>
       </c>
       <c r="EH9" t="n">
-        <v>0.09096591163941752</v>
+        <v>0.006433326306481232</v>
       </c>
       <c r="EI9" t="n">
         <v>0</v>
       </c>
       <c r="EJ9" t="n">
-        <v>-0.2147805182956</v>
+        <v>0.02021992188153952</v>
       </c>
       <c r="EK9" t="n">
         <v>0</v>
       </c>
       <c r="EL9" t="n">
-        <v>-0.01268699248391805</v>
+        <v>0.01152890453401783</v>
       </c>
       <c r="EM9" t="n">
-        <v>-0.02435364737788466</v>
+        <v>0</v>
       </c>
       <c r="EN9" t="n">
         <v>-0</v>
@@ -5422,52 +5422,52 @@
         <v>0</v>
       </c>
       <c r="EP9" t="n">
-        <v>0</v>
+        <v>0.05235701534147637</v>
       </c>
       <c r="EQ9" t="n">
-        <v>0.06043952554210476</v>
+        <v>-0.06065231212610028</v>
       </c>
       <c r="ER9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES9" t="n">
-        <v>-0.06653063454072226</v>
+        <v>0.04915721648811593</v>
       </c>
       <c r="ET9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU9" t="n">
-        <v>-0.01653467651855045</v>
+        <v>-0.03418567121867153</v>
       </c>
       <c r="EV9" t="n">
-        <v>-0.05701442128796279</v>
+        <v>0</v>
       </c>
       <c r="EW9" t="n">
         <v>0</v>
       </c>
       <c r="EX9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY9" t="n">
-        <v>0</v>
+        <v>-0.03116003257538138</v>
       </c>
       <c r="EZ9" t="n">
-        <v>0.09134998178147977</v>
+        <v>-0.01151786189295157</v>
       </c>
       <c r="FA9" t="n">
         <v>-0</v>
       </c>
       <c r="FB9" t="n">
-        <v>-0.1699492683044741</v>
+        <v>-0.04985463277064952</v>
       </c>
       <c r="FC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD9" t="n">
-        <v>-0.01796221335346499</v>
+        <v>0.05137092210996059</v>
       </c>
       <c r="FE9" t="n">
-        <v>-0.0186481422116617</v>
+        <v>0</v>
       </c>
       <c r="FF9" t="n">
         <v>0</v>
@@ -5476,64 +5476,64 @@
         <v>0</v>
       </c>
       <c r="FH9" t="n">
-        <v>0</v>
+        <v>-0.0266754271930504</v>
       </c>
       <c r="FI9" t="n">
-        <v>-0.06145770266920861</v>
+        <v>-0.09987264110534538</v>
       </c>
       <c r="FJ9" t="n">
         <v>-0</v>
       </c>
       <c r="FK9" t="n">
-        <v>-0.09859170685845986</v>
+        <v>0.1108655337658598</v>
       </c>
       <c r="FL9" t="n">
         <v>-0</v>
       </c>
       <c r="FM9" t="n">
-        <v>0.1791781956274264</v>
+        <v>-0.154630511641966</v>
       </c>
       <c r="FN9" t="n">
-        <v>0.02324435313462136</v>
+        <v>0</v>
       </c>
       <c r="FO9" t="n">
         <v>-0</v>
       </c>
       <c r="FP9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ9" t="n">
-        <v>0</v>
+        <v>-0.08764785812594403</v>
       </c>
       <c r="FR9" t="n">
-        <v>0.01967628214650122</v>
+        <v>0.01328961647385072</v>
       </c>
       <c r="FS9" t="n">
         <v>-0</v>
       </c>
       <c r="FT9" t="n">
-        <v>0.003250156669342175</v>
+        <v>-0.03016043065928029</v>
       </c>
       <c r="FU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV9" t="n">
-        <v>-0.1107289470178694</v>
+        <v>0.01941071026568984</v>
       </c>
       <c r="FW9" t="n">
-        <v>0.02282688121464864</v>
+        <v>-0</v>
       </c>
       <c r="FX9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ9" t="n">
-        <v>-0</v>
+        <v>-0.06059174439454677</v>
       </c>
       <c r="GA9" t="n">
-        <v>0.02220691269026862</v>
+        <v>0.005656548928134044</v>
       </c>
       <c r="GB9" t="n">
         <v>-0</v>
@@ -5542,13 +5542,13 @@
         <v>0</v>
       </c>
       <c r="GD9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GE9" t="n">
-        <v>0.0301527248131883</v>
+        <v>0.05034337852069893</v>
       </c>
       <c r="GF9" t="n">
-        <v>-0.04627392895580044</v>
+        <v>-0</v>
       </c>
       <c r="GG9" t="n">
         <v>-0</v>
